--- a/Structure/7 - Oil Gas/RegionalOilGasEmploymentforMap.xlsx
+++ b/Structure/7 - Oil Gas/RegionalOilGasEmploymentforMap.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\7 - Oil Gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\7 - Oil Gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31782B1-30DE-4F81-821D-F89E42A0EF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB9416-5D8C-48C8-83BF-ECE8EFA46294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1400" windowWidth="28780" windowHeight="15370" xr2:uid="{94490C43-2156-441C-8F07-5D2BF88675C7}"/>
+    <workbookView xWindow="-14280" yWindow="630" windowWidth="13365" windowHeight="13305" xr2:uid="{94490C43-2156-441C-8F07-5D2BF88675C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -493,12 +501,12 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,12 +520,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.36</v>
+        <v>0.41035856573705182</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -526,12 +534,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.12</v>
+        <v>0.13047808764940239</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -540,12 +548,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.09</v>
+        <v>4.9800796812749001E-2</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -554,12 +562,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>7.0000000000000007E-2</v>
+        <v>7.320717131474104E-2</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -568,12 +576,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.0000000000000007E-2</v>
+        <v>8.5159362549800791E-2</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -582,12 +590,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06</v>
+        <v>4.7310756972111553E-2</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -596,12 +604,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.06</v>
+        <v>4.4322709163346616E-2</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -610,12 +618,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.05</v>
+        <v>5.2788844621513946E-2</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -624,12 +632,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.05</v>
+        <v>4.6812749003984064E-2</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -638,12 +646,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>2.2410358565737053E-2</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -652,12 +660,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02</v>
+        <v>2.7390438247011952E-2</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -666,12 +674,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.02</v>
+        <v>8.9641434262948214E-3</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -681,11 +689,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{5D739794-8E39-4DE9-86E2-4491717B5ABE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
-      <sortCondition descending="1" ref="B1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D13" xr:uid="{5D739794-8E39-4DE9-86E2-4491717B5ABE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
     <sortCondition ref="A1:A13"/>
   </sortState>
